--- a/schedules/schedule_subjects_overview.xlsx
+++ b/schedules/schedule_subjects_overview.xlsx
@@ -1037,10 +1037,8 @@
         <v>26</v>
       </c>
       <c r="AB5" s="1" t="n"/>
-      <c r="AC5" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="AC5" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1211,10 +1209,8 @@
         <v>10</v>
       </c>
       <c r="AB7" s="1" t="n"/>
-      <c r="AC7" s="1" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="AC7" s="1" t="n">
+        <v>115</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1285,10 +1281,8 @@
         <v>10</v>
       </c>
       <c r="AB8" s="1" t="n"/>
-      <c r="AC8" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AC8" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1709,10 +1703,8 @@
         <v>2</v>
       </c>
       <c r="AB15" s="1" t="n"/>
-      <c r="AC15" s="1" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="AC15" s="1" t="n">
+        <v>210</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4527,10 +4519,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AD2" t="n">
         <v>3</v>
@@ -4888,10 +4878,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>209</v>
       </c>
       <c r="AD2" t="n">
         <v>3</v>
@@ -6054,10 +6042,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>209</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9744,10 +9730,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -12221,10 +12205,8 @@
         <v>30</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>202</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -12621,10 +12603,8 @@
         <v>3</v>
       </c>
       <c r="AB9" s="1" t="n"/>
-      <c r="AC9" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="AC9" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -13864,10 +13844,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>109</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -15389,10 +15367,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -16272,10 +16248,8 @@
         <v>3</v>
       </c>
       <c r="AB9" s="1" t="n"/>
-      <c r="AC9" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="AC9" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -19148,10 +19122,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19891,10 +19863,8 @@
         <v>4</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>209</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -20983,10 +20953,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -21784,10 +21752,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -22145,10 +22111,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -24104,10 +24068,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -25660,10 +25622,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>210</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -28095,10 +28055,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -30724,10 +30682,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>209</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -31475,10 +31431,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -31836,10 +31790,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -32197,10 +32149,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>103</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34757,10 +34707,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -34861,10 +34809,8 @@
         <v>2</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -35147,10 +35093,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>207</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -36176,10 +36120,8 @@
         <v>3</v>
       </c>
       <c r="AB4" s="1" t="n"/>
-      <c r="AC4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -39115,10 +39057,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>202</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -40932,10 +40872,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>109</v>
       </c>
       <c r="AD2" t="n">
         <v>3</v>
